--- a/PaidMedia/wpromote_andriodtv_ytdspendbydate_102121.xlsx
+++ b/PaidMedia/wpromote_andriodtv_ytdspendbydate_102121.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caleymartinez/Desktop/Weekly Reporting 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcushilliard/Documents/GitHub/CTV/PaidMedia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{63EC89CF-DD5F-124F-B5B7-DA36C29CA729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2E7EC-9A13-494C-BFE6-89D43AACAE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="YTD_Android_TV_Spend_20211021_2" sheetId="1" r:id="rId2"/>
+    <sheet name="YTD_Android_TV_Spend_20211021_2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="169" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="35">
   <si>
     <t>Advertiser</t>
   </si>
@@ -130,83 +126,11 @@
   <si>
     <t>Peacock | Punky Brewster | PG | 2/25 - 3/3</t>
   </si>
-  <si>
-    <t>Report Time:</t>
-  </si>
-  <si>
-    <t>2021/10/21 20:00 GMT</t>
-  </si>
-  <si>
-    <t>Date Range:</t>
-  </si>
-  <si>
-    <t>2021/01/01 to 2021/10/20</t>
-  </si>
-  <si>
-    <t>Group By:</t>
-  </si>
-  <si>
-    <t>MRC Accredited Metrics</t>
-  </si>
-  <si>
-    <t>Clicks(Desktop Video, Desktop Display, Desktop Rich Media, Mobile Video, Mobile Display, Mobile Rich Media, In-App Video, In-App Display, In-App Rich Media)</t>
-  </si>
-  <si>
-    <t>Click Rate (CTR)(Desktop Video, Desktop Display, Desktop Rich Media, Mobile Video, Mobile Display, Mobile Rich Media, In-App Video, In-App Display, In-App Rich Media)</t>
-  </si>
-  <si>
-    <t>Active View metrics are accredited only when Measurement Source = Measured</t>
-  </si>
-  <si>
-    <t>Reporting numbers from the previous month are finalized (for billing purposes) on the first of each month, unless communicated otherwise. Some numbers in reports may fluctuate for up to seven days before matching billing numbers.</t>
-  </si>
-  <si>
-    <t>Filter by Advertiser ID:</t>
-  </si>
-  <si>
-    <t>Filter by Insertion Order ID:</t>
-  </si>
-  <si>
-    <t>Filter by Partner ID:</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Sum of Revenue (Adv Currency)</t>
-  </si>
-  <si>
-    <t>(Multiple Items)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -684,18 +608,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -741,26 +657,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -771,3814 +668,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44490.558794907411" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="134">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q135" sheet="YTD_Android_TV_Spend_20211021_2"/>
-  </cacheSource>
-  <cacheFields count="18">
-    <cacheField name="Advertiser" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Advertiser ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6004134" maxValue="6004134"/>
-    </cacheField>
-    <cacheField name="Advertiser Currency" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Insertion Order" numFmtId="0">
-      <sharedItems count="8">
-        <s v="NBCU | Peacock | Dr. Death | Android/Google TV Featured Carousel | PG 2021-06-10T16:26:25.189393Z"/>
-        <s v="NBCU | Peacock | Girls5Eva | Android/Google TV Featured Carousel | PG"/>
-        <s v="NBCU | Peacock | Rutherford Falls | Android / Google TV Featured Carousel | PG"/>
-        <s v="NBCU | Peacock | The Lost Symbol | Android/Google TV Featured Carousel | PG"/>
-        <s v="NBCU | Peacock | The Office | Android / Google TV Featured Carousel | PG"/>
-        <s v="NBCU | Peacock | The Office | PG Campaign | 2/3/21 - 2/9/21"/>
-        <s v="NBCU | Peacock | Wrestlemania | Android/Google TV Featured Carousel | 4/5/21 - 4/11/21 | PG"/>
-        <s v="Peacock | Punky Brewster | Android/Google TV Homescreen | PG Campaign"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Insertion Order ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="17853352" maxValue="22920471"/>
-    </cacheField>
-    <cacheField name="Line Item" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Line Item ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="46372727" maxValue="56621746"/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-02-03T00:00:00" maxDate="2021-10-12T00:00:00" count="128">
-        <d v="2021-07-15T00:00:00"/>
-        <d v="2021-07-16T00:00:00"/>
-        <d v="2021-07-17T00:00:00"/>
-        <d v="2021-07-18T00:00:00"/>
-        <d v="2021-07-19T00:00:00"/>
-        <d v="2021-07-20T00:00:00"/>
-        <d v="2021-07-21T00:00:00"/>
-        <d v="2021-07-22T00:00:00"/>
-        <d v="2021-07-23T00:00:00"/>
-        <d v="2021-07-24T00:00:00"/>
-        <d v="2021-07-25T00:00:00"/>
-        <d v="2021-07-26T00:00:00"/>
-        <d v="2021-07-27T00:00:00"/>
-        <d v="2021-07-28T00:00:00"/>
-        <d v="2021-07-29T00:00:00"/>
-        <d v="2021-07-30T00:00:00"/>
-        <d v="2021-07-31T00:00:00"/>
-        <d v="2021-08-01T00:00:00"/>
-        <d v="2021-08-02T00:00:00"/>
-        <d v="2021-08-03T00:00:00"/>
-        <d v="2021-08-04T00:00:00"/>
-        <d v="2021-08-05T00:00:00"/>
-        <d v="2021-05-06T00:00:00"/>
-        <d v="2021-05-07T00:00:00"/>
-        <d v="2021-05-08T00:00:00"/>
-        <d v="2021-05-09T00:00:00"/>
-        <d v="2021-05-10T00:00:00"/>
-        <d v="2021-05-11T00:00:00"/>
-        <d v="2021-05-12T00:00:00"/>
-        <d v="2021-05-13T00:00:00"/>
-        <d v="2021-05-14T00:00:00"/>
-        <d v="2021-05-16T00:00:00"/>
-        <d v="2021-05-17T00:00:00"/>
-        <d v="2021-05-19T00:00:00"/>
-        <d v="2021-05-21T00:00:00"/>
-        <d v="2021-04-22T00:00:00"/>
-        <d v="2021-04-23T00:00:00"/>
-        <d v="2021-04-24T00:00:00"/>
-        <d v="2021-04-25T00:00:00"/>
-        <d v="2021-04-26T00:00:00"/>
-        <d v="2021-04-27T00:00:00"/>
-        <d v="2021-04-28T00:00:00"/>
-        <d v="2021-04-29T00:00:00"/>
-        <d v="2021-05-01T00:00:00"/>
-        <d v="2021-05-03T00:00:00"/>
-        <d v="2021-09-16T00:00:00"/>
-        <d v="2021-09-17T00:00:00"/>
-        <d v="2021-09-18T00:00:00"/>
-        <d v="2021-09-19T00:00:00"/>
-        <d v="2021-09-20T00:00:00"/>
-        <d v="2021-09-21T00:00:00"/>
-        <d v="2021-09-22T00:00:00"/>
-        <d v="2021-09-23T00:00:00"/>
-        <d v="2021-09-24T00:00:00"/>
-        <d v="2021-09-25T00:00:00"/>
-        <d v="2021-09-26T00:00:00"/>
-        <d v="2021-09-27T00:00:00"/>
-        <d v="2021-09-28T00:00:00"/>
-        <d v="2021-09-29T00:00:00"/>
-        <d v="2021-10-01T00:00:00"/>
-        <d v="2021-10-02T00:00:00"/>
-        <d v="2021-10-03T00:00:00"/>
-        <d v="2021-10-05T00:00:00"/>
-        <d v="2021-10-07T00:00:00"/>
-        <d v="2021-10-11T00:00:00"/>
-        <d v="2021-03-18T00:00:00"/>
-        <d v="2021-03-19T00:00:00"/>
-        <d v="2021-03-20T00:00:00"/>
-        <d v="2021-03-21T00:00:00"/>
-        <d v="2021-03-22T00:00:00"/>
-        <d v="2021-03-23T00:00:00"/>
-        <d v="2021-03-24T00:00:00"/>
-        <d v="2021-03-25T00:00:00"/>
-        <d v="2021-03-26T00:00:00"/>
-        <d v="2021-03-27T00:00:00"/>
-        <d v="2021-03-28T00:00:00"/>
-        <d v="2021-03-30T00:00:00"/>
-        <d v="2021-03-31T00:00:00"/>
-        <d v="2021-04-02T00:00:00"/>
-        <d v="2021-04-03T00:00:00"/>
-        <d v="2021-04-05T00:00:00"/>
-        <d v="2021-02-03T00:00:00"/>
-        <d v="2021-02-04T00:00:00"/>
-        <d v="2021-02-05T00:00:00"/>
-        <d v="2021-02-06T00:00:00"/>
-        <d v="2021-02-07T00:00:00"/>
-        <d v="2021-02-08T00:00:00"/>
-        <d v="2021-02-09T00:00:00"/>
-        <d v="2021-02-10T00:00:00"/>
-        <d v="2021-02-11T00:00:00"/>
-        <d v="2021-02-14T00:00:00"/>
-        <d v="2021-02-19T00:00:00"/>
-        <d v="2021-02-20T00:00:00"/>
-        <d v="2021-02-21T00:00:00"/>
-        <d v="2021-02-23T00:00:00"/>
-        <d v="2021-04-06T00:00:00"/>
-        <d v="2021-04-07T00:00:00"/>
-        <d v="2021-04-08T00:00:00"/>
-        <d v="2021-04-09T00:00:00"/>
-        <d v="2021-04-10T00:00:00"/>
-        <d v="2021-04-11T00:00:00"/>
-        <d v="2021-04-12T00:00:00"/>
-        <d v="2021-04-13T00:00:00"/>
-        <d v="2021-04-14T00:00:00"/>
-        <d v="2021-04-15T00:00:00"/>
-        <d v="2021-04-17T00:00:00"/>
-        <d v="2021-04-21T00:00:00"/>
-        <d v="2021-02-25T00:00:00"/>
-        <d v="2021-02-26T00:00:00"/>
-        <d v="2021-02-27T00:00:00"/>
-        <d v="2021-02-28T00:00:00"/>
-        <d v="2021-03-01T00:00:00"/>
-        <d v="2021-03-02T00:00:00"/>
-        <d v="2021-03-03T00:00:00"/>
-        <d v="2021-03-04T00:00:00"/>
-        <d v="2021-03-05T00:00:00"/>
-        <d v="2021-03-06T00:00:00"/>
-        <d v="2021-03-07T00:00:00"/>
-        <d v="2021-03-08T00:00:00"/>
-        <d v="2021-03-09T00:00:00"/>
-        <d v="2021-03-10T00:00:00"/>
-        <d v="2021-03-11T00:00:00"/>
-        <d v="2021-03-12T00:00:00"/>
-        <d v="2021-03-13T00:00:00"/>
-        <d v="2021-03-14T00:00:00"/>
-        <d v="2021-03-15T00:00:00"/>
-        <d v="2021-03-16T00:00:00"/>
-        <d v="2021-03-17T00:00:00"/>
-      </sharedItems>
-      <fieldGroup par="17" base="7">
-        <rangePr groupBy="days" startDate="2021-02-03T00:00:00" endDate="2021-10-12T00:00:00"/>
-        <groupItems count="368">
-          <s v="&lt;2/3/21"/>
-          <s v="1-Jan"/>
-          <s v="2-Jan"/>
-          <s v="3-Jan"/>
-          <s v="4-Jan"/>
-          <s v="5-Jan"/>
-          <s v="6-Jan"/>
-          <s v="7-Jan"/>
-          <s v="8-Jan"/>
-          <s v="9-Jan"/>
-          <s v="10-Jan"/>
-          <s v="11-Jan"/>
-          <s v="12-Jan"/>
-          <s v="13-Jan"/>
-          <s v="14-Jan"/>
-          <s v="15-Jan"/>
-          <s v="16-Jan"/>
-          <s v="17-Jan"/>
-          <s v="18-Jan"/>
-          <s v="19-Jan"/>
-          <s v="20-Jan"/>
-          <s v="21-Jan"/>
-          <s v="22-Jan"/>
-          <s v="23-Jan"/>
-          <s v="24-Jan"/>
-          <s v="25-Jan"/>
-          <s v="26-Jan"/>
-          <s v="27-Jan"/>
-          <s v="28-Jan"/>
-          <s v="29-Jan"/>
-          <s v="30-Jan"/>
-          <s v="31-Jan"/>
-          <s v="1-Feb"/>
-          <s v="2-Feb"/>
-          <s v="3-Feb"/>
-          <s v="4-Feb"/>
-          <s v="5-Feb"/>
-          <s v="6-Feb"/>
-          <s v="7-Feb"/>
-          <s v="8-Feb"/>
-          <s v="9-Feb"/>
-          <s v="10-Feb"/>
-          <s v="11-Feb"/>
-          <s v="12-Feb"/>
-          <s v="13-Feb"/>
-          <s v="14-Feb"/>
-          <s v="15-Feb"/>
-          <s v="16-Feb"/>
-          <s v="17-Feb"/>
-          <s v="18-Feb"/>
-          <s v="19-Feb"/>
-          <s v="20-Feb"/>
-          <s v="21-Feb"/>
-          <s v="22-Feb"/>
-          <s v="23-Feb"/>
-          <s v="24-Feb"/>
-          <s v="25-Feb"/>
-          <s v="26-Feb"/>
-          <s v="27-Feb"/>
-          <s v="28-Feb"/>
-          <s v="29-Feb"/>
-          <s v="1-Mar"/>
-          <s v="2-Mar"/>
-          <s v="3-Mar"/>
-          <s v="4-Mar"/>
-          <s v="5-Mar"/>
-          <s v="6-Mar"/>
-          <s v="7-Mar"/>
-          <s v="8-Mar"/>
-          <s v="9-Mar"/>
-          <s v="10-Mar"/>
-          <s v="11-Mar"/>
-          <s v="12-Mar"/>
-          <s v="13-Mar"/>
-          <s v="14-Mar"/>
-          <s v="15-Mar"/>
-          <s v="16-Mar"/>
-          <s v="17-Mar"/>
-          <s v="18-Mar"/>
-          <s v="19-Mar"/>
-          <s v="20-Mar"/>
-          <s v="21-Mar"/>
-          <s v="22-Mar"/>
-          <s v="23-Mar"/>
-          <s v="24-Mar"/>
-          <s v="25-Mar"/>
-          <s v="26-Mar"/>
-          <s v="27-Mar"/>
-          <s v="28-Mar"/>
-          <s v="29-Mar"/>
-          <s v="30-Mar"/>
-          <s v="31-Mar"/>
-          <s v="1-Apr"/>
-          <s v="2-Apr"/>
-          <s v="3-Apr"/>
-          <s v="4-Apr"/>
-          <s v="5-Apr"/>
-          <s v="6-Apr"/>
-          <s v="7-Apr"/>
-          <s v="8-Apr"/>
-          <s v="9-Apr"/>
-          <s v="10-Apr"/>
-          <s v="11-Apr"/>
-          <s v="12-Apr"/>
-          <s v="13-Apr"/>
-          <s v="14-Apr"/>
-          <s v="15-Apr"/>
-          <s v="16-Apr"/>
-          <s v="17-Apr"/>
-          <s v="18-Apr"/>
-          <s v="19-Apr"/>
-          <s v="20-Apr"/>
-          <s v="21-Apr"/>
-          <s v="22-Apr"/>
-          <s v="23-Apr"/>
-          <s v="24-Apr"/>
-          <s v="25-Apr"/>
-          <s v="26-Apr"/>
-          <s v="27-Apr"/>
-          <s v="28-Apr"/>
-          <s v="29-Apr"/>
-          <s v="30-Apr"/>
-          <s v="1-May"/>
-          <s v="2-May"/>
-          <s v="3-May"/>
-          <s v="4-May"/>
-          <s v="5-May"/>
-          <s v="6-May"/>
-          <s v="7-May"/>
-          <s v="8-May"/>
-          <s v="9-May"/>
-          <s v="10-May"/>
-          <s v="11-May"/>
-          <s v="12-May"/>
-          <s v="13-May"/>
-          <s v="14-May"/>
-          <s v="15-May"/>
-          <s v="16-May"/>
-          <s v="17-May"/>
-          <s v="18-May"/>
-          <s v="19-May"/>
-          <s v="20-May"/>
-          <s v="21-May"/>
-          <s v="22-May"/>
-          <s v="23-May"/>
-          <s v="24-May"/>
-          <s v="25-May"/>
-          <s v="26-May"/>
-          <s v="27-May"/>
-          <s v="28-May"/>
-          <s v="29-May"/>
-          <s v="30-May"/>
-          <s v="31-May"/>
-          <s v="1-Jun"/>
-          <s v="2-Jun"/>
-          <s v="3-Jun"/>
-          <s v="4-Jun"/>
-          <s v="5-Jun"/>
-          <s v="6-Jun"/>
-          <s v="7-Jun"/>
-          <s v="8-Jun"/>
-          <s v="9-Jun"/>
-          <s v="10-Jun"/>
-          <s v="11-Jun"/>
-          <s v="12-Jun"/>
-          <s v="13-Jun"/>
-          <s v="14-Jun"/>
-          <s v="15-Jun"/>
-          <s v="16-Jun"/>
-          <s v="17-Jun"/>
-          <s v="18-Jun"/>
-          <s v="19-Jun"/>
-          <s v="20-Jun"/>
-          <s v="21-Jun"/>
-          <s v="22-Jun"/>
-          <s v="23-Jun"/>
-          <s v="24-Jun"/>
-          <s v="25-Jun"/>
-          <s v="26-Jun"/>
-          <s v="27-Jun"/>
-          <s v="28-Jun"/>
-          <s v="29-Jun"/>
-          <s v="30-Jun"/>
-          <s v="1-Jul"/>
-          <s v="2-Jul"/>
-          <s v="3-Jul"/>
-          <s v="4-Jul"/>
-          <s v="5-Jul"/>
-          <s v="6-Jul"/>
-          <s v="7-Jul"/>
-          <s v="8-Jul"/>
-          <s v="9-Jul"/>
-          <s v="10-Jul"/>
-          <s v="11-Jul"/>
-          <s v="12-Jul"/>
-          <s v="13-Jul"/>
-          <s v="14-Jul"/>
-          <s v="15-Jul"/>
-          <s v="16-Jul"/>
-          <s v="17-Jul"/>
-          <s v="18-Jul"/>
-          <s v="19-Jul"/>
-          <s v="20-Jul"/>
-          <s v="21-Jul"/>
-          <s v="22-Jul"/>
-          <s v="23-Jul"/>
-          <s v="24-Jul"/>
-          <s v="25-Jul"/>
-          <s v="26-Jul"/>
-          <s v="27-Jul"/>
-          <s v="28-Jul"/>
-          <s v="29-Jul"/>
-          <s v="30-Jul"/>
-          <s v="31-Jul"/>
-          <s v="1-Aug"/>
-          <s v="2-Aug"/>
-          <s v="3-Aug"/>
-          <s v="4-Aug"/>
-          <s v="5-Aug"/>
-          <s v="6-Aug"/>
-          <s v="7-Aug"/>
-          <s v="8-Aug"/>
-          <s v="9-Aug"/>
-          <s v="10-Aug"/>
-          <s v="11-Aug"/>
-          <s v="12-Aug"/>
-          <s v="13-Aug"/>
-          <s v="14-Aug"/>
-          <s v="15-Aug"/>
-          <s v="16-Aug"/>
-          <s v="17-Aug"/>
-          <s v="18-Aug"/>
-          <s v="19-Aug"/>
-          <s v="20-Aug"/>
-          <s v="21-Aug"/>
-          <s v="22-Aug"/>
-          <s v="23-Aug"/>
-          <s v="24-Aug"/>
-          <s v="25-Aug"/>
-          <s v="26-Aug"/>
-          <s v="27-Aug"/>
-          <s v="28-Aug"/>
-          <s v="29-Aug"/>
-          <s v="30-Aug"/>
-          <s v="31-Aug"/>
-          <s v="1-Sep"/>
-          <s v="2-Sep"/>
-          <s v="3-Sep"/>
-          <s v="4-Sep"/>
-          <s v="5-Sep"/>
-          <s v="6-Sep"/>
-          <s v="7-Sep"/>
-          <s v="8-Sep"/>
-          <s v="9-Sep"/>
-          <s v="10-Sep"/>
-          <s v="11-Sep"/>
-          <s v="12-Sep"/>
-          <s v="13-Sep"/>
-          <s v="14-Sep"/>
-          <s v="15-Sep"/>
-          <s v="16-Sep"/>
-          <s v="17-Sep"/>
-          <s v="18-Sep"/>
-          <s v="19-Sep"/>
-          <s v="20-Sep"/>
-          <s v="21-Sep"/>
-          <s v="22-Sep"/>
-          <s v="23-Sep"/>
-          <s v="24-Sep"/>
-          <s v="25-Sep"/>
-          <s v="26-Sep"/>
-          <s v="27-Sep"/>
-          <s v="28-Sep"/>
-          <s v="29-Sep"/>
-          <s v="30-Sep"/>
-          <s v="1-Oct"/>
-          <s v="2-Oct"/>
-          <s v="3-Oct"/>
-          <s v="4-Oct"/>
-          <s v="5-Oct"/>
-          <s v="6-Oct"/>
-          <s v="7-Oct"/>
-          <s v="8-Oct"/>
-          <s v="9-Oct"/>
-          <s v="10-Oct"/>
-          <s v="11-Oct"/>
-          <s v="12-Oct"/>
-          <s v="13-Oct"/>
-          <s v="14-Oct"/>
-          <s v="15-Oct"/>
-          <s v="16-Oct"/>
-          <s v="17-Oct"/>
-          <s v="18-Oct"/>
-          <s v="19-Oct"/>
-          <s v="20-Oct"/>
-          <s v="21-Oct"/>
-          <s v="22-Oct"/>
-          <s v="23-Oct"/>
-          <s v="24-Oct"/>
-          <s v="25-Oct"/>
-          <s v="26-Oct"/>
-          <s v="27-Oct"/>
-          <s v="28-Oct"/>
-          <s v="29-Oct"/>
-          <s v="30-Oct"/>
-          <s v="31-Oct"/>
-          <s v="1-Nov"/>
-          <s v="2-Nov"/>
-          <s v="3-Nov"/>
-          <s v="4-Nov"/>
-          <s v="5-Nov"/>
-          <s v="6-Nov"/>
-          <s v="7-Nov"/>
-          <s v="8-Nov"/>
-          <s v="9-Nov"/>
-          <s v="10-Nov"/>
-          <s v="11-Nov"/>
-          <s v="12-Nov"/>
-          <s v="13-Nov"/>
-          <s v="14-Nov"/>
-          <s v="15-Nov"/>
-          <s v="16-Nov"/>
-          <s v="17-Nov"/>
-          <s v="18-Nov"/>
-          <s v="19-Nov"/>
-          <s v="20-Nov"/>
-          <s v="21-Nov"/>
-          <s v="22-Nov"/>
-          <s v="23-Nov"/>
-          <s v="24-Nov"/>
-          <s v="25-Nov"/>
-          <s v="26-Nov"/>
-          <s v="27-Nov"/>
-          <s v="28-Nov"/>
-          <s v="29-Nov"/>
-          <s v="30-Nov"/>
-          <s v="1-Dec"/>
-          <s v="2-Dec"/>
-          <s v="3-Dec"/>
-          <s v="4-Dec"/>
-          <s v="5-Dec"/>
-          <s v="6-Dec"/>
-          <s v="7-Dec"/>
-          <s v="8-Dec"/>
-          <s v="9-Dec"/>
-          <s v="10-Dec"/>
-          <s v="11-Dec"/>
-          <s v="12-Dec"/>
-          <s v="13-Dec"/>
-          <s v="14-Dec"/>
-          <s v="15-Dec"/>
-          <s v="16-Dec"/>
-          <s v="17-Dec"/>
-          <s v="18-Dec"/>
-          <s v="19-Dec"/>
-          <s v="20-Dec"/>
-          <s v="21-Dec"/>
-          <s v="22-Dec"/>
-          <s v="23-Dec"/>
-          <s v="24-Dec"/>
-          <s v="25-Dec"/>
-          <s v="26-Dec"/>
-          <s v="27-Dec"/>
-          <s v="28-Dec"/>
-          <s v="29-Dec"/>
-          <s v="30-Dec"/>
-          <s v="31-Dec"/>
-          <s v="&gt;10/12/21"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Impressions" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="779102"/>
-    </cacheField>
-    <cacheField name="Billable Impressions" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="779102"/>
-    </cacheField>
-    <cacheField name="Clicks" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="Click Rate (CTR)" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="Total Conversions" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="28"/>
-    </cacheField>
-    <cacheField name="Post-Click Conversions" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="Post-View Conversions" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="28"/>
-    </cacheField>
-    <cacheField name="Revenue (Adv Currency)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="10938.59208" count="71">
-        <n v="2599.8008399999999"/>
-        <n v="3549.5085600000002"/>
-        <n v="3367.2693599999998"/>
-        <n v="3308.5681199999999"/>
-        <n v="3290.1055200000001"/>
-        <n v="3276.0514800000001"/>
-        <n v="3240.8812800000001"/>
-        <n v="3218.62788"/>
-        <n v="3116.5711200000001"/>
-        <n v="3079.14048"/>
-        <n v="2717.0207999999998"/>
-        <n v="84.127679999999998"/>
-        <n v="0"/>
-        <n v="6146.8664399999998"/>
-        <n v="8008.87932"/>
-        <n v="7454.4256800000003"/>
-        <n v="7323.17976"/>
-        <n v="7185.8404799999998"/>
-        <n v="7119.1224000000002"/>
-        <n v="6267.0909600000005"/>
-        <n v="272.58659999999998"/>
-        <n v="6398.3649599999999"/>
-        <n v="8307.9453599999997"/>
-        <n v="7700.04144"/>
-        <n v="7478.43408"/>
-        <n v="7869.4340400000001"/>
-        <n v="7285.6508400000002"/>
-        <n v="6533.2051199999996"/>
-        <n v="292.80419999999998"/>
-        <n v="2592.8089199999999"/>
-        <n v="9817.5682799999995"/>
-        <n v="8188.7176799999997"/>
-        <n v="8022.8210399999998"/>
-        <n v="4261.2242399999996"/>
-        <n v="6832.2571200000002"/>
-        <n v="6105.6169200000004"/>
-        <n v="496.51056"/>
-        <n v="1720.84068"/>
-        <n v="1996.86708"/>
-        <n v="5743.6095599999999"/>
-        <n v="8164.3021200000003"/>
-        <n v="7579.12896"/>
-        <n v="7308.1569600000003"/>
-        <n v="7264.6469999999999"/>
-        <n v="7135.5070800000003"/>
-        <n v="6018.1758"/>
-        <n v="367.65143999999998"/>
-        <n v="6781.0392000000002"/>
-        <n v="8170.6201199999996"/>
-        <n v="7794.57276"/>
-        <n v="7914.9798000000001"/>
-        <n v="7292.6006399999997"/>
-        <n v="7303.9309199999998"/>
-        <n v="6394.3495199999998"/>
-        <n v="298.67291999999998"/>
-        <n v="9262.4547600000005"/>
-        <n v="10938.59208"/>
-        <n v="10584.2646"/>
-        <n v="10147.42404"/>
-        <n v="10033.78428"/>
-        <n v="10130.955120000001"/>
-        <n v="8360.2864800000007"/>
-        <n v="299.97863999999998"/>
-        <n v="5967.7862400000004"/>
-        <n v="7941.0941999999995"/>
-        <n v="7422.8637600000002"/>
-        <n v="7165.5105599999997"/>
-        <n v="7294.9031999999997"/>
-        <n v="6829.3508400000001"/>
-        <n v="5902.2615599999999"/>
-        <n v="368.14283999999998"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Total Media Cost (Advertiser Currency)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="10938.59208"/>
-    </cacheField>
-    <cacheField name="Months" numFmtId="0" databaseField="0">
-      <fieldGroup base="7">
-        <rangePr groupBy="months" startDate="2021-02-03T00:00:00" endDate="2021-10-12T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;2/3/21"/>
-          <s v="Jan"/>
-          <s v="Feb"/>
-          <s v="Mar"/>
-          <s v="Apr"/>
-          <s v="May"/>
-          <s v="Jun"/>
-          <s v="Jul"/>
-          <s v="Aug"/>
-          <s v="Sep"/>
-          <s v="Oct"/>
-          <s v="Nov"/>
-          <s v="Dec"/>
-          <s v="&gt;10/12/21"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="134">
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="0"/>
-    <n v="185171"/>
-    <n v="185171"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="0"/>
-    <n v="2599.8008399999999"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="1"/>
-    <n v="252814"/>
-    <n v="252814"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="10"/>
-    <n v="0"/>
-    <n v="10"/>
-    <x v="1"/>
-    <n v="3549.5085600000002"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="2"/>
-    <n v="239834"/>
-    <n v="239834"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="3367.2693599999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="3"/>
-    <n v="235653"/>
-    <n v="235653"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="3"/>
-    <n v="3308.5681199999999"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="4"/>
-    <n v="234338"/>
-    <n v="234338"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="8"/>
-    <x v="4"/>
-    <n v="3290.1055200000001"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="5"/>
-    <n v="233337"/>
-    <n v="233337"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="5"/>
-    <x v="5"/>
-    <n v="3276.0514800000001"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="6"/>
-    <n v="230832"/>
-    <n v="230832"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="6"/>
-    <n v="3240.8812800000001"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="7"/>
-    <n v="229247"/>
-    <n v="229247"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="6"/>
-    <x v="7"/>
-    <n v="3218.62788"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="8"/>
-    <n v="221978"/>
-    <n v="221978"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7"/>
-    <n v="0"/>
-    <n v="7"/>
-    <x v="8"/>
-    <n v="3116.5711200000001"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="9"/>
-    <n v="219312"/>
-    <n v="219312"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="13"/>
-    <n v="0"/>
-    <n v="13"/>
-    <x v="9"/>
-    <n v="3079.14048"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="10"/>
-    <n v="193520"/>
-    <n v="193520"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="11"/>
-    <n v="0"/>
-    <n v="11"/>
-    <x v="10"/>
-    <n v="2717.0207999999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="11"/>
-    <n v="5992"/>
-    <n v="5992"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="6"/>
-    <x v="11"/>
-    <n v="84.127679999999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="8"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="4"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="6"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="4"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="5"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="19"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="20"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="0"/>
-    <n v="20868545"/>
-    <s v="NBCU | Peacock | Dr.Death | 7/15/21 - 7/25/21"/>
-    <n v="52189098"/>
-    <x v="21"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="22"/>
-    <n v="437811"/>
-    <n v="437811"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="13"/>
-    <n v="6146.8664399999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="23"/>
-    <n v="570433"/>
-    <n v="570433"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="14"/>
-    <n v="8008.87932"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="24"/>
-    <n v="530942"/>
-    <n v="530942"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="15"/>
-    <n v="7454.4256800000003"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="25"/>
-    <n v="521594"/>
-    <n v="521594"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="4"/>
-    <x v="16"/>
-    <n v="7323.17976"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="26"/>
-    <n v="511812"/>
-    <n v="511812"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="17"/>
-    <n v="7185.8404799999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="27"/>
-    <n v="507060"/>
-    <n v="507060"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="18"/>
-    <n v="7119.1224000000002"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="28"/>
-    <n v="446374"/>
-    <n v="446374"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="19"/>
-    <n v="6267.0909600000005"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="29"/>
-    <n v="19415"/>
-    <n v="19415"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="20"/>
-    <n v="272.58659999999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="1"/>
-    <n v="19872040"/>
-    <s v="NBCU | Peacock | Girls5Eva | PG | 5/6/21 - 5/12/21 | Android TV 2021-04-28T23:09:32.924Z"/>
-    <n v="49969880"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="35"/>
-    <n v="455724"/>
-    <n v="455724"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="4"/>
-    <x v="21"/>
-    <n v="6398.3649599999999"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="36"/>
-    <n v="591734"/>
-    <n v="591734"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="22"/>
-    <n v="8307.9453599999997"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="37"/>
-    <n v="548436"/>
-    <n v="548436"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="23"/>
-    <n v="7700.04144"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="38"/>
-    <n v="532652"/>
-    <n v="532652"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7"/>
-    <n v="0"/>
-    <n v="7"/>
-    <x v="24"/>
-    <n v="7478.43408"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="39"/>
-    <n v="560501"/>
-    <n v="560501"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="25"/>
-    <n v="7869.4340400000001"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="40"/>
-    <n v="518921"/>
-    <n v="518921"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="26"/>
-    <n v="7285.6508400000002"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="41"/>
-    <n v="465328"/>
-    <n v="465328"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="27"/>
-    <n v="6533.2051199999996"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="42"/>
-    <n v="20855"/>
-    <n v="20855"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="28"/>
-    <n v="292.80419999999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="43"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="44"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="24"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="2"/>
-    <n v="18324745"/>
-    <s v="NBCU | Peacock | Rutherford Falls | PG | 4/22 - 4/28"/>
-    <n v="47143587"/>
-    <x v="27"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="45"/>
-    <n v="184673"/>
-    <n v="184673"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="29"/>
-    <n v="2592.8089199999999"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="46"/>
-    <n v="699257"/>
-    <n v="699257"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="30"/>
-    <n v="9817.5682799999995"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="47"/>
-    <n v="583242"/>
-    <n v="583242"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="5"/>
-    <x v="31"/>
-    <n v="8188.7176799999997"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="48"/>
-    <n v="571426"/>
-    <n v="571426"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7"/>
-    <n v="0"/>
-    <n v="7"/>
-    <x v="32"/>
-    <n v="8022.8210399999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="49"/>
-    <n v="303506"/>
-    <n v="303506"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="33"/>
-    <n v="4261.2242399999996"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="50"/>
-    <n v="486628"/>
-    <n v="486628"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="34"/>
-    <n v="6832.2571200000002"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="51"/>
-    <n v="434873"/>
-    <n v="434873"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="35"/>
-    <n v="6105.6169200000004"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="52"/>
-    <n v="35364"/>
-    <n v="35364"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="6"/>
-    <n v="0"/>
-    <n v="6"/>
-    <x v="36"/>
-    <n v="496.51056"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="53"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="54"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="55"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="56"/>
-    <n v="122567"/>
-    <n v="122567"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="37"/>
-    <n v="1720.84068"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="57"/>
-    <n v="142227"/>
-    <n v="142227"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="38"/>
-    <n v="1996.86708"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="58"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="59"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="60"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="61"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="62"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="63"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="3"/>
-    <n v="22920471"/>
-    <s v="NBCU | Peacock | The Lost Symbol | 9/16/21 - 9/23/21"/>
-    <n v="56621746"/>
-    <x v="64"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="65"/>
-    <n v="409089"/>
-    <n v="409089"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="39"/>
-    <n v="5743.6095599999999"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="66"/>
-    <n v="581503"/>
-    <n v="581503"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="40"/>
-    <n v="8164.3021200000003"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="67"/>
-    <n v="539824"/>
-    <n v="539824"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="4"/>
-    <x v="41"/>
-    <n v="7579.12896"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="68"/>
-    <n v="520524"/>
-    <n v="520524"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="42"/>
-    <n v="7308.1569600000003"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="69"/>
-    <n v="517425"/>
-    <n v="517425"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="43"/>
-    <n v="7264.6469999999999"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="70"/>
-    <n v="508227"/>
-    <n v="508227"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="44"/>
-    <n v="7135.5070800000003"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="71"/>
-    <n v="428645"/>
-    <n v="428645"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="45"/>
-    <n v="6018.1758"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="72"/>
-    <n v="26186"/>
-    <n v="26186"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="46"/>
-    <n v="367.65143999999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="73"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="74"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="75"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="76"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="77"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="78"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="79"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="4"/>
-    <n v="18498081"/>
-    <s v="NBCU | Peacock | The Office | Android / Google TV FC | 3/18 - 3/25"/>
-    <n v="47401632"/>
-    <x v="80"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="81"/>
-    <n v="482980"/>
-    <n v="482980"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="47"/>
-    <n v="6781.0392000000002"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="82"/>
-    <n v="581953"/>
-    <n v="581953"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="48"/>
-    <n v="8170.6201199999996"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="83"/>
-    <n v="555169"/>
-    <n v="555169"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="49"/>
-    <n v="7794.57276"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="84"/>
-    <n v="563745"/>
-    <n v="563745"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="50"/>
-    <n v="7914.9798000000001"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="85"/>
-    <n v="519416"/>
-    <n v="519416"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="51"/>
-    <n v="7292.6006399999997"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="86"/>
-    <n v="520223"/>
-    <n v="520223"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="52"/>
-    <n v="7303.9309199999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="87"/>
-    <n v="455438"/>
-    <n v="455438"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="53"/>
-    <n v="6394.3495199999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="88"/>
-    <n v="21273"/>
-    <n v="21273"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="54"/>
-    <n v="298.67291999999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="89"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="91"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="92"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="93"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="5"/>
-    <n v="17853352"/>
-    <s v="NBCU_Peacock_The Office - PG Campaign"/>
-    <n v="46372727"/>
-    <x v="94"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="80"/>
-    <n v="659719"/>
-    <n v="659719"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="55"/>
-    <n v="9262.4547600000005"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="95"/>
-    <n v="779102"/>
-    <n v="779102"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="56"/>
-    <n v="10938.59208"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="96"/>
-    <n v="753865"/>
-    <n v="753865"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="57"/>
-    <n v="10584.2646"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="97"/>
-    <n v="722751"/>
-    <n v="722751"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="4"/>
-    <x v="58"/>
-    <n v="10147.42404"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="98"/>
-    <n v="714657"/>
-    <n v="714657"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="59"/>
-    <n v="10033.78428"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="99"/>
-    <n v="721578"/>
-    <n v="721578"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="8"/>
-    <x v="60"/>
-    <n v="10130.955120000001"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="100"/>
-    <n v="595462"/>
-    <n v="595462"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="5"/>
-    <x v="61"/>
-    <n v="8360.2864800000007"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="101"/>
-    <n v="21366"/>
-    <n v="21366"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="62"/>
-    <n v="299.97863999999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="102"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="103"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="104"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="105"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="106"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="6"/>
-    <n v="19239554"/>
-    <s v="NBCU | Peacock | Wrestlemania | 3/29 /21 - 4/11/21 2021-04-01T18:03:24.022Z"/>
-    <n v="48691094"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="107"/>
-    <n v="425056"/>
-    <n v="425056"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="10"/>
-    <n v="0"/>
-    <n v="10"/>
-    <x v="63"/>
-    <n v="5967.7862400000004"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="108"/>
-    <n v="565605"/>
-    <n v="565605"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="14"/>
-    <n v="0"/>
-    <n v="14"/>
-    <x v="64"/>
-    <n v="7941.0941999999995"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="109"/>
-    <n v="528694"/>
-    <n v="528694"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="19"/>
-    <n v="0"/>
-    <n v="19"/>
-    <x v="65"/>
-    <n v="7422.8637600000002"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="110"/>
-    <n v="510364"/>
-    <n v="510364"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="24"/>
-    <n v="0"/>
-    <n v="24"/>
-    <x v="66"/>
-    <n v="7165.5105599999997"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="111"/>
-    <n v="519580"/>
-    <n v="519580"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="13"/>
-    <n v="0"/>
-    <n v="13"/>
-    <x v="67"/>
-    <n v="7294.9031999999997"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="112"/>
-    <n v="486421"/>
-    <n v="486421"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="27"/>
-    <n v="0"/>
-    <n v="27"/>
-    <x v="68"/>
-    <n v="6829.3508400000001"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="113"/>
-    <n v="420389"/>
-    <n v="420389"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="18"/>
-    <n v="0"/>
-    <n v="18"/>
-    <x v="69"/>
-    <n v="5902.2615599999999"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="114"/>
-    <n v="26221"/>
-    <n v="26221"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="13"/>
-    <n v="0"/>
-    <n v="13"/>
-    <x v="70"/>
-    <n v="368.14283999999998"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="115"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="10"/>
-    <n v="0"/>
-    <n v="10"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="116"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="28"/>
-    <n v="0"/>
-    <n v="28"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="117"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="19"/>
-    <n v="0"/>
-    <n v="19"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="118"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="9"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="119"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="16"/>
-    <n v="0"/>
-    <n v="16"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="120"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="17"/>
-    <n v="0"/>
-    <n v="17"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="121"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="10"/>
-    <n v="0"/>
-    <n v="10"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="122"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="16"/>
-    <n v="0"/>
-    <n v="16"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="123"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="0"/>
-    <n v="20"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="124"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="17"/>
-    <n v="0"/>
-    <n v="17"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="125"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="126"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="3"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="127"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="NBCU Peacock"/>
-    <n v="6004134"/>
-    <s v="USD"/>
-    <x v="7"/>
-    <n v="17968540"/>
-    <s v="Peacock | Punky Brewster | PG | 2/25 - 3/3"/>
-    <n v="46574880"/>
-    <x v="65"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-    <x v="12"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable24" cacheId="169" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="18">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="72">
-        <item h="1" x="12"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="28"/>
-        <item x="54"/>
-        <item x="62"/>
-        <item x="46"/>
-        <item x="70"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="29"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="33"/>
-        <item x="39"/>
-        <item x="69"/>
-        <item x="63"/>
-        <item x="45"/>
-        <item x="35"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="53"/>
-        <item x="21"/>
-        <item x="27"/>
-        <item x="47"/>
-        <item x="68"/>
-        <item x="34"/>
-        <item x="18"/>
-        <item x="44"/>
-        <item x="66"/>
-        <item x="17"/>
-        <item x="43"/>
-        <item x="26"/>
-        <item x="51"/>
-        <item x="67"/>
-        <item x="52"/>
-        <item x="42"/>
-        <item x="16"/>
-        <item x="65"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="41"/>
-        <item x="23"/>
-        <item x="49"/>
-        <item x="25"/>
-        <item x="50"/>
-        <item x="64"/>
-        <item x="14"/>
-        <item x="32"/>
-        <item x="40"/>
-        <item x="48"/>
-        <item x="31"/>
-        <item x="22"/>
-        <item x="61"/>
-        <item x="55"/>
-        <item x="30"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="58"/>
-        <item x="57"/>
-        <item x="56"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="17"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="15" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Revenue (Adv Currency)" fld="15" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4877,190 +966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>34847.673119999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="6">
-        <v>34847.673119999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6">
-        <v>49777.99164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="6">
-        <v>49777.99164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6">
-        <v>51865.880040000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="6">
-        <v>51865.880040000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6">
-        <v>50035.232520000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="6">
-        <v>50035.232520000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6">
-        <v>49581.178919999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6">
-        <v>49581.178919999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6">
-        <v>51950.765879999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6">
-        <v>51950.765879999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="6">
-        <v>69757.740000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6">
-        <v>69757.740000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="6">
-        <v>48891.913199999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="6">
-        <v>28497.25476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="6">
-        <v>20394.658439999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="6">
-        <v>406708.37531999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q152"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q135"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12220,182 +8130,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I136">
-        <v>28967833</v>
-      </c>
-      <c r="J136">
-        <v>28967833</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>599</v>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <v>599</v>
-      </c>
-      <c r="P136">
-        <v>406708.37531999999</v>
-      </c>
-      <c r="Q136">
-        <v>406708.37531999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>35</v>
-      </c>
-      <c r="B138" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>39</v>
-      </c>
-      <c r="B140" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>39</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>39</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>39</v>
-      </c>
-      <c r="B146" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>39</v>
-      </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148" t="s">
-        <v>41</v>
-      </c>
-      <c r="C148" t="s">
-        <v>42</v>
-      </c>
-      <c r="D148" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>45</v>
-      </c>
-      <c r="B150">
-        <v>6004134</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>46</v>
-      </c>
-      <c r="B151">
-        <v>16987048</v>
-      </c>
-      <c r="C151">
-        <v>17853352</v>
-      </c>
-      <c r="D151">
-        <v>17968540</v>
-      </c>
-      <c r="E151">
-        <v>18324745</v>
-      </c>
-      <c r="F151">
-        <v>18498081</v>
-      </c>
-      <c r="G151">
-        <v>19239554</v>
-      </c>
-      <c r="H151">
-        <v>19872040</v>
-      </c>
-      <c r="I151">
-        <v>20868545</v>
-      </c>
-      <c r="J151">
-        <v>22920471</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>47</v>
-      </c>
-      <c r="B152">
-        <v>5627134</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
